--- a/BaseSC.xlsx
+++ b/BaseSC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoodDays\Desktop\Chilling\Diligence\FMPscripts\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoodDays\Desktop\ITThings\MarketArrayDev\FMPScripts\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2FF14E-5638-4ECA-9880-63C3F8A0DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A25FB31-CED9-4862-BC4B-DFA8CC4AFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,17 @@
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -879,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C142"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.81640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -893,11 +904,11 @@
     <col min="4" max="12" width="21.81640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.453125" style="1" customWidth="1"/>
     <col min="14" max="14" width="63.6328125" style="1" customWidth="1"/>
-    <col min="15" max="27" width="21.81640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="21.81640625" style="1"/>
+    <col min="15" max="26" width="21.81640625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="21.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -941,7 +952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45</v>
       </c>
@@ -956,12 +967,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="O2" s="3" t="e">
-        <f t="shared" ref="O2:O33" si="0">I2/K2</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -976,12 +983,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="O3" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -996,12 +999,8 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="O4" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>84</v>
       </c>
@@ -1016,12 +1015,8 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="O5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>54</v>
       </c>
@@ -1036,12 +1031,8 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="O6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>117</v>
       </c>
@@ -1056,12 +1047,8 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="O7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>62</v>
       </c>
@@ -1076,12 +1063,8 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="O8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -1096,12 +1079,8 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="O9" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -1116,12 +1095,8 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="O10" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>76</v>
       </c>
@@ -1136,12 +1111,8 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="O11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>132</v>
       </c>
@@ -1156,12 +1127,8 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="O12" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -1176,12 +1143,8 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="O13" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>24</v>
       </c>
@@ -1196,12 +1159,8 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="O14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>141</v>
       </c>
@@ -1216,12 +1175,8 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="O15" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>71</v>
       </c>
@@ -1236,12 +1191,8 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="O16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>41</v>
       </c>
@@ -1256,12 +1207,8 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="O17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -1276,12 +1223,8 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="O18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42</v>
       </c>
@@ -1296,12 +1239,8 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="O19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>94</v>
       </c>
@@ -1316,12 +1255,8 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="O20" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>49</v>
       </c>
@@ -1336,12 +1271,8 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="O21" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>37</v>
       </c>
@@ -1356,12 +1287,8 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="O22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -1376,12 +1303,8 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="O23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>16</v>
       </c>
@@ -1396,12 +1319,8 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="O24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -1416,12 +1335,8 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="O25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -1436,12 +1351,8 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="O26" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>80</v>
       </c>
@@ -1456,12 +1367,8 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="O27" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -1476,12 +1383,8 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="O28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>61</v>
       </c>
@@ -1496,12 +1399,8 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="O29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -1516,12 +1415,8 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="O30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1536,12 +1431,8 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="O31" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -1556,12 +1447,8 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="O32" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>68</v>
       </c>
@@ -1576,12 +1463,8 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="O33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>72</v>
       </c>
@@ -1596,12 +1479,8 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="O34" s="3" t="e">
-        <f t="shared" ref="O34:O65" si="1">I34/K34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>88</v>
       </c>
@@ -1616,12 +1495,8 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="O35" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>107</v>
       </c>
@@ -1636,12 +1511,8 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="O36" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -1656,12 +1527,8 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="O37" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>86</v>
       </c>
@@ -1676,12 +1543,8 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="O38" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>60</v>
       </c>
@@ -1696,12 +1559,8 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="O39" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1716,12 +1575,8 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="O40" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>73</v>
       </c>
@@ -1736,12 +1591,8 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="O41" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>17</v>
       </c>
@@ -1756,12 +1607,8 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="O42" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>9</v>
       </c>
@@ -1776,12 +1623,8 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="O43" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>96</v>
       </c>
@@ -1796,12 +1639,8 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="O44" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>26</v>
       </c>
@@ -1816,12 +1655,8 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="O45" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>30</v>
       </c>
@@ -1836,12 +1671,8 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="O46" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>57</v>
       </c>
@@ -1856,12 +1687,8 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="O47" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>64</v>
       </c>
@@ -1876,12 +1703,8 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="O48" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>81</v>
       </c>
@@ -1896,12 +1719,8 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="O49" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>59</v>
       </c>
@@ -1916,12 +1735,8 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="O50" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -1936,12 +1751,8 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="O51" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>140</v>
       </c>
@@ -1956,12 +1767,8 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="O52" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>98</v>
       </c>
@@ -1976,12 +1783,8 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="O53" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>67</v>
       </c>
@@ -1996,12 +1799,8 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="O54" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>127</v>
       </c>
@@ -2016,12 +1815,8 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="O55" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>65</v>
       </c>
@@ -2036,12 +1831,8 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="O56" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>48</v>
       </c>
@@ -2056,12 +1847,8 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="O57" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -2076,12 +1863,8 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="O58" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>92</v>
       </c>
@@ -2096,12 +1879,8 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="O59" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>32</v>
       </c>
@@ -2116,12 +1895,8 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="O60" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>51</v>
       </c>
@@ -2136,12 +1911,8 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="O61" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43</v>
       </c>
@@ -2156,12 +1927,8 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="O62" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44</v>
       </c>
@@ -2176,12 +1943,8 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="O63" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>93</v>
       </c>
@@ -2196,12 +1959,8 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="O64" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>77</v>
       </c>
@@ -2216,12 +1975,8 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="O65" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>28</v>
       </c>
@@ -2236,12 +1991,8 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="O66" s="3" t="e">
-        <f t="shared" ref="O66:O97" si="2">I66/K66</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>129</v>
       </c>
@@ -2256,12 +2007,8 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="O67" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>100</v>
       </c>
@@ -2276,12 +2023,8 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="O68" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>52</v>
       </c>
@@ -2296,12 +2039,8 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="O69" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>63</v>
       </c>
@@ -2316,12 +2055,8 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="O70" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>66</v>
       </c>
@@ -2336,12 +2071,8 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="O71" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -2356,12 +2087,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="O72" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>83</v>
       </c>
@@ -2376,12 +2103,8 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="O73" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>120</v>
       </c>
@@ -2396,12 +2119,8 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="O74" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -2416,12 +2135,8 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="O75" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>90</v>
       </c>
@@ -2436,12 +2151,8 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="O76" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>15</v>
       </c>
@@ -2456,12 +2167,8 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="O77" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>137</v>
       </c>
@@ -2476,12 +2183,8 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="O78" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>126</v>
       </c>
@@ -2496,12 +2199,8 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="O79" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>36</v>
       </c>
@@ -2516,12 +2215,8 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="O80" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>142</v>
       </c>
@@ -2536,12 +2231,8 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="O81" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>40</v>
       </c>
@@ -2556,12 +2247,8 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="O82" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>7</v>
       </c>
@@ -2576,12 +2263,8 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="O83" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>95</v>
       </c>
@@ -2596,12 +2279,8 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="O84" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>35</v>
       </c>
@@ -2616,12 +2295,8 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="O85" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>55</v>
       </c>
@@ -2636,12 +2311,8 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="O86" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>53</v>
       </c>
@@ -2656,12 +2327,8 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="O87" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>33</v>
       </c>
@@ -2676,12 +2343,8 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="O88" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>99</v>
       </c>
@@ -2696,12 +2359,8 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="O89" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>124</v>
       </c>
@@ -2716,12 +2375,8 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="O90" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>4</v>
       </c>
@@ -2736,12 +2391,8 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="O91" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>31</v>
       </c>
@@ -2756,12 +2407,8 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="O92" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>22</v>
       </c>
@@ -2776,12 +2423,8 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-      <c r="O93" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>109</v>
       </c>
@@ -2796,12 +2439,8 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-      <c r="O94" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>102</v>
       </c>
@@ -2816,12 +2455,8 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="O95" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>78</v>
       </c>
@@ -2836,12 +2471,8 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-      <c r="O96" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>111</v>
       </c>
@@ -2856,12 +2487,8 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-      <c r="O97" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>133</v>
       </c>
@@ -2876,12 +2503,8 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="O98" s="3" t="e">
-        <f t="shared" ref="O98:O129" si="3">I98/K98</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
@@ -2896,12 +2519,8 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="O99" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>46</v>
       </c>
@@ -2916,12 +2535,8 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="O100" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>131</v>
       </c>
@@ -2936,12 +2551,8 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="O101" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>27</v>
       </c>
@@ -2956,12 +2567,8 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-      <c r="O102" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>19</v>
       </c>
@@ -2976,12 +2583,8 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="O103" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>108</v>
       </c>
@@ -2996,12 +2599,8 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
-      <c r="O104" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -3016,12 +2615,8 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
-      <c r="O105" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>122</v>
       </c>
@@ -3036,12 +2631,8 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
-      <c r="O106" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>14</v>
       </c>
@@ -3056,12 +2647,8 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
-      <c r="O107" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>115</v>
       </c>
@@ -3076,12 +2663,8 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
-      <c r="O108" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>125</v>
       </c>
@@ -3096,12 +2679,8 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-      <c r="O109" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -3116,12 +2695,8 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
-      <c r="O110" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>128</v>
       </c>
@@ -3136,12 +2711,8 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
-      <c r="O111" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>123</v>
       </c>
@@ -3156,12 +2727,8 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
-      <c r="O112" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>97</v>
       </c>
@@ -3176,12 +2743,8 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
-      <c r="O113" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>58</v>
       </c>
@@ -3196,12 +2759,8 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
-      <c r="O114" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>87</v>
       </c>
@@ -3216,12 +2775,8 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
-      <c r="O115" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>91</v>
       </c>
@@ -3236,12 +2791,8 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
-      <c r="O116" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>75</v>
       </c>
@@ -3256,12 +2807,8 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
-      <c r="O117" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>130</v>
       </c>
@@ -3276,12 +2823,8 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
-      <c r="O118" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>112</v>
       </c>
@@ -3296,12 +2839,8 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
-      <c r="O119" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -3316,12 +2855,8 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
-      <c r="O120" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>69</v>
       </c>
@@ -3336,12 +2871,8 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="O121" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>135</v>
       </c>
@@ -3356,12 +2887,8 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="O122" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>74</v>
       </c>
@@ -3376,12 +2903,8 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="O123" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -3396,12 +2919,8 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-      <c r="O124" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>85</v>
       </c>
@@ -3416,12 +2935,8 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="O125" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>25</v>
       </c>
@@ -3436,12 +2951,8 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="O126" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>79</v>
       </c>
@@ -3456,12 +2967,8 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
-      <c r="O127" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>106</v>
       </c>
@@ -3476,12 +2983,8 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
-      <c r="O128" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -3496,12 +2999,8 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
-      <c r="O129" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>139</v>
       </c>
@@ -3516,12 +3015,8 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
-      <c r="O130" s="3" t="e">
-        <f t="shared" ref="O130:O142" si="4">I130/K130</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>101</v>
       </c>
@@ -3536,12 +3031,8 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-      <c r="O131" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>136</v>
       </c>
@@ -3556,12 +3047,8 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
-      <c r="O132" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>113</v>
       </c>
@@ -3576,12 +3063,8 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
-      <c r="O133" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>20</v>
       </c>
@@ -3596,12 +3079,8 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
-      <c r="O134" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>89</v>
       </c>
@@ -3616,12 +3095,8 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
-      <c r="O135" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>138</v>
       </c>
@@ -3636,12 +3111,8 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
-      <c r="O136" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>70</v>
       </c>
@@ -3656,12 +3127,8 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
-      <c r="O137" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
@@ -3676,12 +3143,8 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
-      <c r="O138" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>143</v>
       </c>
@@ -3696,12 +3159,8 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
-      <c r="O139" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>119</v>
       </c>
@@ -3716,12 +3175,8 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
-      <c r="O140" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>114</v>
       </c>
@@ -3736,12 +3191,8 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
-      <c r="O141" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>121</v>
       </c>
@@ -3756,10 +3207,6 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
-      <c r="O142" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N142">
